--- a/キーワード_拡大版.xlsx
+++ b/キーワード_拡大版.xlsx
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['数学', 'プログラム', 'コンピューティング', 'サイエンス', 'アプリケーション', 'ソフトウェア', 'プロトコル', '数理', '理論', '原理', '仮説', 'イノベーション', 'IoT', '論理']</t>
+          <t>['数学', 'プログラム', 'コンピューティング', 'サイエンス', 'アプリケーション', 'ソフトウェア', '原理', '数理', '理論', '仮説', 'イノベーション', 'IoT', '論理']</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['プログラム', 'アプリケーション', '統計', '機械学習', 'ビッグデータ', '自然言語処理', '解析', 'サイエンス', 'コンピューティング', '調査', 'ソフトウェア', 'プロトコル', '数理', 'アルゴリズム', 'データ', '分析', '数学', 'システム情報', 'イノベーション', 'IoT', '情報']</t>
+          <t>['プログラム', 'アプリケーション', '統計', '機械学習', 'ビッグデータ', '自然言語処理', '解析', 'サイエンス', 'コンピューティング', '調査', 'ソフトウェア', 'アルゴリズム', '数理', 'データ', '分析', '数学', 'システム情報', 'イノベーション', 'IoT', '情報']</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['暗号', '電子署名', '分散', '処理', '制御', '公開鍵暗号', 'プログラム', 'アプリケーション', 'アルゴリズム', 'プロトコル', '情報セキュリティ', 'セキュリティ', '符号', '数値解析', '情報システム', 'ソフトウェア', '最適化']</t>
+          <t>['暗号', '電子署名', '分散', '処理', '制御', '公開鍵暗号', 'プログラム', 'アプリケーション', 'アルゴリズム', '情報システム', '情報セキュリティ', 'セキュリティ', '符号', '数値解析', 'ソフトウェア', '最適化']</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['プログラム', 'アプリケーション', '情報システム', '生産', 'サイエンス', 'コンピューティング', 'ソフトウェア', '公共', 'プロトコル', 'インフラ', '社会', '経済', '社会基盤', 'ネットワーク', '実証', '設計', '情報セキュリティ', '開発', 'イノベーション', 'IoT']</t>
+          <t>['プログラム', 'アプリケーション', '情報システム', '生産', 'サイエンス', 'コンピューティング', 'ソフトウェア', '公共', 'インフラ', '社会', '経済', '社会基盤', 'ネットワーク', '実証', '設計', '情報セキュリティ', '開発', 'イノベーション', 'IoT']</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['関数', '物理', '電磁気学', 'プログラム', '制御', 'アプリケーション', '力学', '解析', 'モデル', 'モデリング', '数理', 'ソフトウェア', 'プロトコル', 'シミュレーション', 'センシング', '処理', '非線形', '分析', '計算', '数学', '量子', '数値', 'アーキテクチャ', '数値解析']</t>
+          <t>['関数', '物理', '電磁気学', 'プログラム', '制御', 'アプリケーション', '力学', '解析', 'モデル', 'モデリング', '数理', 'ソフトウェア', 'シミュレーション', 'センシング', '処理', '非線形', '分析', '計算', '数学', '量子', '数値', 'アーキテクチャ', '数値解析']</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>['環境', 'プログラミング', '人体', 'エネルギー', '解析', 'インフラ', '空間', 'プログラム', 'アプリケーション', '放射線', 'ソフトウェア', 'プロトコル', 'モデリング', '化学', 'シミュレーション', '数値解析', '分析']</t>
+          <t>['環境', 'プログラミング', '人体', 'エネルギー', '解析', 'インフラ', '空間', 'プログラム', 'アプリケーション', '放射線', 'ソフトウェア', 'モデリング', '化学', 'シミュレーション', '数値解析', '分析']</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>['数学', '解析', 'データ', '通信', 'コンテンツ', 'ネットワーク', '調査', '実証', 'インターネット', '現象', '統計', '数理', 'IP', 'プロトコル', '機械学習', 'python', '分析', '情報']</t>
+          <t>['数学', '解析', 'データ', '通信', 'コンテンツ', 'ネットワーク', '調査', '実証', 'インターネット', '現象', '統計', '数理', 'IP', '機械学習', 'python', '分析', '情報']</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>['関数', '解析', 'データ分析', 'アプリケーション', 'コンピュータ', 'モデル', 'モデリング', 'アルゴリズム', 'プロトコル', '解法', 'シミュレーション', 'ソフトウェア', 'アーキテクチャ', 'ハードウェア', '最適化']</t>
+          <t>['関数', '解析', 'データ分析', 'アプリケーション', 'コンピュータ', 'モデル', 'モデリング', 'アルゴリズム', 'ソフトウェア', '解法', 'シミュレーション', 'アーキテクチャ', 'ハードウェア', '最適化']</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>['解析', 'データ分析', 'データ', 'プログラム', '調査', '実証', 'アプリケーション', 'ソフトウェア', 'プロトコル', 'アルゴリズム', '機械学習', 'python', '分析', '情報']</t>
+          <t>['解析', 'データ分析', 'データ', 'プログラム', '調査', '実証', 'アプリケーション', 'ソフトウェア', 'アルゴリズム', '機械学習', 'python', '分析', '情報']</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>['関数', 'プログラミング', 'アプリケーション', '統計', 'ハードウェア', '解析', 'コンテンツ', '調査', 'アルゴリズム', 'プロトコル', 'ソフトウェア', 'モデリング', '解法', 'データ', '分析', '計算', '通信', 'コンピュータ', '数値', '情報']</t>
+          <t>['関数', 'プログラミング', 'アプリケーション', '統計', 'ハードウェア', '解析', 'コンテンツ', '調査', 'アルゴリズム', 'ソフトウェア', 'モデリング', '解法', 'データ', '分析', '計算', '通信', 'コンピュータ', '数値', '情報']</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>['プログラミング', '解析', '数学', '調査', 'アプリケーション', '意思決定', 'ソフトウェア', '統計', 'モデリング', 'セキュリティ', 'プロトコル', 'シミュレーション', '問題解決', 'インタフェース', 'アルゴリズム', '数理', '最適化', '分析']</t>
+          <t>['プログラミング', '解析', '数学', '調査', 'アプリケーション', '意思決定', 'ソフトウェア', '統計', 'モデリング', 'セキュリティ', 'プロトコル', 'シミュレーション', '問題解決', '数理', '最適化', '分析']</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3013,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>['情報システム', '電子署名', '公開鍵暗号', 'システム', 'プロトコル', 'セキュリティ', '数理', '代数', '構造', '方程式', '方式', '金融機関', '数学', '整数論', '取引', '情報セキュリティ', '幾何学', '数値解析', '貿易', '定理', '投資']</t>
+          <t>['情報システム', '電子署名', '公開鍵暗号', 'システム', 'セキュリティ', '数理', '代数', '方程式', '方式', '金融機関', '数学', '整数論', '取引', '情報セキュリティ', '幾何学', '数値解析', '貿易', '定理', '投資']</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>['関数', '計算', '数学', '解析', '空間', '行列', 'アルゴリズム', 'プロトコル', '集合', '数理', '解法', '数値', '理論', '原理', '仮説', '論理']</t>
+          <t>['関数', '計算', '数学', '解析', '空間', '行列', 'アルゴリズム', '集合', '数理', '理論', '解法', '数値', '原理', '仮説', '論理']</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>['関数', 'プログラミング', 'アプリケーション', 'ハードウェア', '解析', 'アルゴリズム', 'プロトコル', 'モデリング', '数理', '解法', 'シミュレーション', '代数', '線形代数', '微積分', '方程式', '最適化', '分析', '幾何学', '数値解析', '定理']</t>
+          <t>['関数', 'プログラミング', 'アプリケーション', 'ハードウェア', '解析', 'アルゴリズム', 'モデリング', '数理', '解法', 'シミュレーション', '代数', '線形代数', '微積分', '方程式', '最適化', '分析', '幾何学', '数値解析', '定理']</t>
         </is>
       </c>
     </row>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>['関数', '学習', 'データ', '実証', 'アプリケーション', '応用', '工学', 'アルゴリズム', 'プロトコル', '化学', '科学', '解法', '応用技術', '情報']</t>
+          <t>['関数', '学習', 'データ', '実証', 'アプリケーション', '応用', '工学', 'アルゴリズム', '化学', '科学', '解法', '応用技術', '情報']</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>['プログラム', 'コンサルティング', '都市', '戦略', 'ハードウェア', 'プロジェクト', 'マーケティング', 'システム', 'プロトコル', 'インタフェース', '政策', '計画', '資産運用', '電子', '地域', 'マネジメント', '事業', '郊外', 'デジタル', 'アーキテクチャ']</t>
+          <t>['プログラム', 'コンサルティング', '都市', '戦略', 'ハードウェア', 'プロジェクト', 'マーケティング', 'システム', 'インタフェース', '政策', '計画', '資産運用', '電子', '地域', 'マネジメント', '事業', '郊外', 'デジタル', 'アーキテクチャ']</t>
         </is>
       </c>
     </row>
@@ -3319,7 +3319,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>['アプリケーション', '情報システム', '戦略', 'ハードウェア', '解析', '生産', 'マーケティング', '調査', 'システム', 'ソフトウェア', 'プロトコル', 'セキュリティ', 'インタフェース', '政策', '建築', 'デザイン', '分析', '実証', '設計', '情報セキュリティ', '開発', 'モデル']</t>
+          <t>['アプリケーション', '情報システム', '戦略', 'ハードウェア', '解析', '生産', 'マーケティング', '調査', 'システム', 'ソフトウェア', 'セキュリティ', 'インタフェース', '政策', '建築', 'デザイン', '分析', '実証', '設計', '情報セキュリティ', '開発', 'モデル']</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3336,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>['レジリエンス', '社会基盤', 'インフラ', 'アプリケーション', 'デジタル', 'ソフトウェア', 'プロトコル', '情報セキュリティ', 'セキュリティ', '情報システム', '電子', '公共', '社会', '地盤', '耐震']</t>
+          <t>['レジリエンス', '社会基盤', 'アプリケーション', 'デジタル', '情報システム', 'ソフトウェア', '情報セキュリティ', 'セキュリティ', '電子', 'インフラ', '公共', '社会', '地盤', '耐震']</t>
         </is>
       </c>
     </row>
@@ -3387,7 +3387,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>['学習', 'インタラクション', '心理', 'アプリケーション', '戦略', '文化', '解析', 'マーケティング', '歴史', 'コンピューティング', '調査', 'モデリング', 'インタフェース', 'プロトコル', 'チームワーク', '人体', '生命', '社会', '経済', '分析', '人間', 'システムデザイン', '実証', 'コミュニケーション', 'モデル', 'IoT', 'アーキテクチャ']</t>
+          <t>['学習', 'インタラクション', '心理', 'アプリケーション', '戦略', '文化', '解析', 'マーケティング', '歴史', 'コンピューティング', '調査', 'モデリング', 'インタフェース', 'チームワーク', '人体', '生命', '社会', '経済', '分析', '人間', 'システムデザイン', '実証', 'コミュニケーション', 'モデル', 'IoT', 'アーキテクチャ']</t>
         </is>
       </c>
     </row>
@@ -3438,7 +3438,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>['レジリエンス', 'アプリケーション', 'ソフトウェア', 'プロトコル', 'インタフェース', 'セキュリティ', 'アルゴリズム', '地盤', '耐震']</t>
+          <t>['レジリエンス', 'アプリケーション', 'ソフトウェア', 'プロトコル', 'セキュリティ', '地盤', '耐震']</t>
         </is>
       </c>
     </row>
@@ -3574,7 +3574,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>['人工知能', 'システム情報', '実証', 'アプリケーション', '応用', '情報科学', '工学', 'ソフトウェア', '情報システム', 'セキュリティ', 'プロトコル', '情報セキュリティ', '科学', '化学', 'イノベーション', '応用技術']</t>
+          <t>['人工知能', 'システム情報', '実証', 'アプリケーション', '応用', '情報科学', '工学', 'ソフトウェア', '情報システム', 'セキュリティ', '情報セキュリティ', '科学', '化学', 'イノベーション', '応用技術']</t>
         </is>
       </c>
     </row>
@@ -3608,7 +3608,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>['センシング', '人体', '解析', '処理', '制御', 'アプリケーション', '生命', 'プロトコル', 'インタフェース', 'アーキテクチャ', '人間']</t>
+          <t>['センシング', '人体', '解析', '処理', '制御', 'アプリケーション', '生命', 'インタフェース', 'アーキテクチャ', '人間']</t>
         </is>
       </c>
     </row>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>['制御', 'アプリケーション', '原理', 'IP', 'ハードウェア', '論理', '解析', 'システム', 'アルゴリズム', 'プロトコル', 'インタフェース', 'センシング', '処理', '構造', '理論', '方式', '通信', 'ネットワーク', 'コンピュータ', '仮説', 'アーキテクチャ']</t>
+          <t>['センシング', '解析', '通信', 'ネットワーク', '制御', '処理', 'システム', 'コンピュータ', '原理', 'プロトコル', 'インタフェース', '理論', '仮説', 'IP', '方式', 'ハードウェア', '論理', 'アーキテクチャ']</t>
         </is>
       </c>
     </row>
@@ -3778,7 +3778,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>['関数', 'プログラミング', '原理', 'ハードウェア', '論理', '解析', 'システム', 'ソフトウェア', 'アルゴリズム', 'プロトコル', 'モデリング', '解法', '数理', '応用', '理論', '方式', '最適化', '応用技術', '計算', '数学', '実証', '最適解', '仮説', '数値', 'アーキテクチャ']</t>
+          <t>['関数', 'プログラミング', '原理', 'ハードウェア', '論理', '解析', 'システム', 'ソフトウェア', 'アルゴリズム', 'モデリング', '数理', '解法', '応用', '理論', '方式', '最適化', '応用技術', '計算', '数学', '実証', '最適解', '仮説', '数値', 'アーキテクチャ']</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>['人体', 'インタラクション', 'IoT', 'コンピューティング', 'アプリケーション', 'コンピュータ', '生命', 'ソフトウェア', 'プロトコル', 'インタフェース', 'モデリング', '設計', '開発', 'デザイン', 'アーキテクチャ', 'ハードウェア', '建築', '人間']</t>
+          <t>['人体', 'インタラクション', 'IoT', 'コンピューティング', 'アプリケーション', 'コンピュータ', '生命', 'ソフトウェア', 'モデリング', 'インタフェース', '設計', 'デザイン', '開発', 'アーキテクチャ', 'ハードウェア', '建築', '人間']</t>
         </is>
       </c>
     </row>
@@ -3863,7 +3863,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>['インタラクション', 'アプリケーション', 'ハードウェア', '生産', 'コンテンツ', 'コンピューティング', 'ソフトウェア', 'プロトコル', 'インタフェース', 'モデリング', '建築', '人体', 'データ', '情報', '生命', 'デザイン', '人間', '通信', '実証', 'コンピュータ', '設計', '開発', 'モデル', 'IoT', 'アーキテクチャ']</t>
+          <t>['インタラクション', 'アプリケーション', 'ハードウェア', '生産', 'コンテンツ', 'コンピューティング', 'ソフトウェア', 'モデリング', 'インタフェース', '建築', '人体', 'データ', '情報', '生命', 'デザイン', '人間', '通信', '実証', 'コンピュータ', '設計', '開発', 'モデル', 'IoT', 'アーキテクチャ']</t>
         </is>
       </c>
     </row>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>['関数', 'プログラミング', 'プログラム', 'アプリケーション', '原理', '論理', '解析', 'システム', 'ソフトウェア', 'プロトコル', 'モデリング', 'アルゴリズム', '解法', '応用', '理論', '方程式', '方式', '応用技術', '計算', '実証', '仮説', '数値', 'アーキテクチャ']</t>
+          <t>['関数', 'プログラミング', 'プログラム', 'アプリケーション', '原理', '論理', '解析', 'システム', 'ソフトウェア', 'モデリング', 'アルゴリズム', '解法', '応用', '理論', '方程式', '方式', '応用技術', '計算', '実証', '仮説', '数値', 'アーキテクチャ']</t>
         </is>
       </c>
     </row>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>['数学', 'プログラム', 'アプリケーション', 'ソフトウェア', 'プロトコル', '理論', '原理', '解法', '数理', '論理']</t>
+          <t>['数学', 'プログラム', 'アプリケーション', 'ソフトウェア', '原理', '理論', '数理', '解法', '論理']</t>
         </is>
       </c>
     </row>
@@ -3965,7 +3965,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>['関数', '動力', '原子', '結晶', '制御', '解析', '調査', 'アルゴリズム', 'プロトコル', 'モデリング', '数理', '解法', '発電', '分子', '分析', '計算', '数学', '水素', '実証', '機械', '数値', 'モデル', 'アーキテクチャ']</t>
+          <t>['関数', '動力', '原子', '結晶', '制御', '解析', '調査', 'アルゴリズム', 'モデリング', '数理', '解法', '発電', '分子', '分析', '計算', '数学', '水素', '実証', '機械', '数値', 'モデル', 'アーキテクチャ']</t>
         </is>
       </c>
     </row>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>['関数', '人工知能', '計算', '数値', '自然言語処理', '解析', '音声', '解法', '調査', '実証', 'アルゴリズム', 'プロトコル', '言語', '機械学習', '応用技術', 'ビッグデータ', 'イノベーション', '分析']</t>
+          <t>['関数', '人工知能', '計算', '数値', '自然言語処理', '解析', '音声', '解法', '調査', '実証', 'アルゴリズム', '言語', '機械学習', '応用技術', 'ビッグデータ', 'イノベーション', '分析']</t>
         </is>
       </c>
     </row>
@@ -3999,7 +3999,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>['関数', '解法', 'アプリケーション', 'コンピュータ', '情報科学', '工学', 'ソフトウェア', 'アルゴリズム', '科学', 'インタフェース', '化学', 'プロトコル', 'アーキテクチャ', 'ハードウェア', '科学技術']</t>
+          <t>['関数', '解法', 'アプリケーション', 'コンピュータ', '工学', 'ソフトウェア', 'アルゴリズム', '科学', 'インタフェース', '化学', 'アーキテクチャ', 'イノベーション', 'ハードウェア', '科学技術']</t>
         </is>
       </c>
     </row>
@@ -4050,7 +4050,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>['言語', '関数', '周波数', '量子', '自然言語処理', 'データ', '音声', '言語モデル', '非線形', 'デジタル', '原理', 'アルゴリズム', '理論', 'プロトコル', '解法', '方程式', '力学']</t>
+          <t>['言語', '関数', '周波数', '量子', '自然言語処理', 'データ', '音声', '言語モデル', '非線形', 'デジタル', '原理', 'アルゴリズム', '理論', '解法', '方程式', '力学']</t>
         </is>
       </c>
     </row>
@@ -4118,7 +4118,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>['関数', 'プログラミング', 'アプリケーション', '大規模', '解析', 'アルゴリズム', 'プロトコル', 'モデリング', '数理', '解法', 'シミュレーション', 'データ', '方程式', '計算', '数学', '行列', '集合', '符号', '数値', '定理']</t>
+          <t>['関数', 'プログラミング', 'アプリケーション', '大規模', '解析', 'アルゴリズム', 'モデリング', '数理', '解法', 'シミュレーション', 'データ', '方程式', '計算', '数学', '行列', '集合', '符号', '数値', '定理']</t>
         </is>
       </c>
     </row>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>['関数', '制御', 'アプリケーション', 'パターン', '原理', '機械学習', 'ビッグデータ', '自然言語処理', 'コンテンツ', 'マーケティング', 'Web', 'ソフトウェア', 'アルゴリズム', 'プロトコル', '解法', 'データ', '処理', 'メディア', 'インターネット', '最適化', '計算', 'システム情報', '通信', 'メカニズム', '情報']</t>
+          <t>['関数', '制御', 'アプリケーション', 'パターン', '原理', '機械学習', 'ビッグデータ', '自然言語処理', 'コンテンツ', 'マーケティング', 'Web', 'ソフトウェア', 'アルゴリズム', '解法', 'データ', '処理', 'メディア', 'インターネット', '最適化', '計算', 'システム情報', '通信', 'メカニズム', '情報']</t>
         </is>
       </c>
     </row>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>['関数', 'プログラミング', 'アプリケーション', '大規模', '統計', '言語', '機械学習', 'ビッグデータ', '自然言語処理', '解析', '音声', '調査', 'アルゴリズム', 'モデリング', 'プロトコル', '解法', '言語モデル', '分析', 'モデル', 'アーキテクチャ']</t>
+          <t>['関数', 'プログラミング', 'アプリケーション', '大規模', '統計', '言語', '機械学習', 'ビッグデータ', '自然言語処理', '解析', '音声', '調査', 'アルゴリズム', 'モデリング', '解法', '言語モデル', '分析', 'モデル', 'アーキテクチャ']</t>
         </is>
       </c>
     </row>
@@ -4203,7 +4203,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>['コンテンツ', 'ネットワーク', 'Web', 'インターネット', 'アプリケーション', 'システム', 'コンピュータ', 'ソフトウェア', '設計', 'デザイン', 'IP', 'プロトコル', '開発', '方式', 'ハードウェア', '建築', 'アーキテクチャ']</t>
+          <t>['コンテンツ', 'ネットワーク', 'Web', 'インターネット', 'アプリケーション', 'システム', 'コンピュータ', 'ソフトウェア', '設計', 'デザイン', 'IP', '開発', '方式', 'ハードウェア', '建築', 'アーキテクチャ']</t>
         </is>
       </c>
     </row>
@@ -4254,7 +4254,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>['実社会', '関数', '暗号', '計算', '解析', '実証', '応用', '政治', 'プロトコル', '社会', 'アルゴリズム', '符号', '数値', '経済', '応用技術']</t>
+          <t>['実社会', '関数', '暗号', '計算', '解析', '実証', '応用', '政治', 'アルゴリズム', '社会', '符号', '数値', '経済', '応用技術']</t>
         </is>
       </c>
     </row>
@@ -4271,7 +4271,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>['関数', '文化', '暗号', '計算', '量子', '解析', '歴史', '非線形', 'アルゴリズム', '力学', '社会', 'プロトコル', '符号', '数値', '方程式', '現代']</t>
+          <t>['関数', '文化', '暗号', '計算', '量子', '解析', '歴史', '非線形', 'アルゴリズム', '力学', '社会', '符号', '数値', '方程式', '現代']</t>
         </is>
       </c>
     </row>
@@ -4339,7 +4339,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>['学習', 'プログラミング', '生産', 'インタラクション', 'マーケティング', '実証', 'アプリケーション', '設計', 'モデリング', 'インタフェース', 'プロトコル', '開発', 'コミュニケーション', 'アーキテクチャ', 'ハードウェア']</t>
+          <t>['学習', 'プログラミング', '生産', 'インタラクション', 'マーケティング', '実証', 'アプリケーション', '設計', 'モデリング', 'インタフェース', '開発', 'コミュニケーション', 'アーキテクチャ', 'ハードウェア']</t>
         </is>
       </c>
     </row>
@@ -4441,7 +4441,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>['通信', 'ネットワーク', 'システム', 'コンピュータ', '構造', '原理', 'プロトコル', '理論', '方式']</t>
+          <t>['通信', 'ネットワーク', 'システム', 'コンピュータ', '原理', 'プロトコル', '理論', '方式']</t>
         </is>
       </c>
     </row>
@@ -4611,7 +4611,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>['シミュレーター', '人工知能', '外界', '仮想現実', '人体', '空間', 'アプリケーション', '生命', 'プロトコル', 'インタフェース', 'シミュレーション', 'アーキテクチャ', '人間']</t>
+          <t>['シミュレーター', '人工知能', '外界', '仮想現実', '人体', '空間', 'アプリケーション', '生命', 'インタフェース', 'シミュレーション', 'アーキテクチャ', '人間']</t>
         </is>
       </c>
     </row>
@@ -4662,7 +4662,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>['関数', '数値', 'データ', '通信', 'コンテンツ', '空間', 'アプリケーション', '行列', '工学', 'ソフトウェア', '集合', 'プロトコル', 'セキュリティ', '科学', '化学', 'アルゴリズム', '符号', '情報']</t>
+          <t>['関数', 'データ', '通信', 'コンテンツ', '空間', 'アプリケーション', '行列', '工学', 'ソフトウェア', '集合', 'セキュリティ', '科学', '化学', '数値', 'アルゴリズム', '符号', '情報']</t>
         </is>
       </c>
     </row>
@@ -4764,7 +4764,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>['軽水炉', '結晶', '空間', '制御', '原理', '解析', '生産', '宇宙', 'センシング', '処理', '人工衛星', '構造', '材料', 'ロボット', '実証', 'コンピュータ', '設計', '金属', '開発', 'メカニズム', '次元', '惑星']</t>
+          <t>['軽水炉', '結晶', '空間', '制御', '原理', '解析', '生産', '宇宙', 'センシング', '処理', '人工衛星', '構造', '材料', '実証', 'コンピュータ', '設計', '金属', '開発', 'メカニズム', '惑星']</t>
         </is>
       </c>
     </row>
@@ -4781,7 +4781,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>['物理', '電磁気学', '空間', 'プログラム', 'アプリケーション', '原理', '科学', '論理', '力学', '解析', '工学', 'ソフトウェア', 'プロトコル', '数理', 'シミュレーション', '線形代数', '微積分', '気学', '理論', '方程式', '分析', '数学', '量子', '仮説', '化学', '数値解析', '次元']</t>
+          <t>['物理', '電磁気学', '空間', 'プログラム', 'アプリケーション', '原理', '科学', '論理', '力学', '解析', '工学', 'ソフトウェア', '数理', 'シミュレーション', '線形代数', '微積分', '気学', '理論', '方程式', '分析', '数学', '量子', '仮説', '化学', '数値解析', '次元']</t>
         </is>
       </c>
     </row>
@@ -5138,7 +5138,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>['人工知能', '物理', '外界', '電磁気学', 'プログラム', '心理', 'アプリケーション', '科学', '力学', 'ソフトウェア', 'プロトコル', '人体', '心理学', '生命', '社会', '倫理', '分子', 'ロボット', '人間', '量子', '機械', '神経']</t>
+          <t>['人工知能', '物理', '外界', '電磁気学', 'プログラム', '心理', 'アプリケーション', '科学', '力学', 'ソフトウェア', '人体', '心理学', '生命', '社会', '倫理', '分子', 'ロボット', '人間', '量子', '機械', '神経']</t>
         </is>
       </c>
     </row>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>['外界', '文化', '人体', 'プログラム', 'アプリケーション', '生命', 'ソフトウェア', '神経', 'プロトコル', '社会', '政治', '分子', '経済', '人間']</t>
+          <t>['外界', '文化', '人体', 'プログラム', 'アプリケーション', '生命', 'ソフトウェア', '神経', '社会', '政治', '分子', '経済', '人間']</t>
         </is>
       </c>
     </row>
@@ -5172,7 +5172,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>['外界', '空間', 'プログラム', 'アプリケーション', 'コンテンツ', 'マーケティング', 'ソフトウェア', 'プロトコル', 'インタフェース', '人体', 'データ', 'メディア', 'インターネット', '生命', '構造', '人間', '通信', 'アーキテクチャ', '次元', '情報']</t>
+          <t>['外界', '空間', 'プログラム', 'アプリケーション', 'コンテンツ', 'マーケティング', 'ソフトウェア', 'インタフェース', '人体', 'データ', 'メディア', 'インターネット', '生命', '構造', '人間', '通信', 'アーキテクチャ', '次元', '情報']</t>
         </is>
       </c>
     </row>
@@ -5206,7 +5206,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>['シミュレーター', '人工知能', '外界', '仮想現実', 'アプリケーション', 'ハードウェア', '解析', 'システム', 'ソフトウェア', 'プロトコル', 'インタフェース', 'モデリング', '数理', 'シミュレーション', '人体', '生命', '分子', '方式', '最適化', '人間', '数学', 'コンピュータ', '神経', 'アーキテクチャ']</t>
+          <t>['シミュレーター', '人工知能', '外界', '仮想現実', 'アプリケーション', 'ハードウェア', '解析', 'システム', 'ソフトウェア', 'モデリング', 'インタフェース', '数理', 'シミュレーション', '人体', '生命', '分子', '方式', '最適化', '人間', '数学', 'コンピュータ', '神経', 'アーキテクチャ']</t>
         </is>
       </c>
     </row>
